--- a/storage/excel/temp_excel.xlsx
+++ b/storage/excel/temp_excel.xlsx
@@ -24,92 +24,92 @@
         <i val="false"/>
         <strike val="false"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
+        <sz val="18"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">SISTEMA DE TIMBRADO DE NÓMINA</t>
+      <t xml:space="preserve">FORMATO ALTA DE TRABAJADORES</t>
     </r>
   </si>
   <si>
-    <t>Id timbrado</t>
+    <t>SISTEMA DE RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>RFC_Empresa</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Apellido Paterno</t>
+  </si>
+  <si>
+    <t>Apellido Materno</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>Codigo empleado</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>Fecha pago</t>
-  </si>
-  <si>
-    <t>Fecha timbrado</t>
-  </si>
-  <si>
-    <t>CIME CANUL NOE HANIE</t>
-  </si>
-  <si>
-    <t>CICN930818P84</t>
-  </si>
-  <si>
-    <t>A0D8788E-D5E6-48B9-B3C1-32F98FAC64B2</t>
-  </si>
-  <si>
-    <t>30-09-2021</t>
-  </si>
-  <si>
-    <t>25-11-2021</t>
-  </si>
-  <si>
-    <t>CIME CANUL NOE HANIEL</t>
-  </si>
-  <si>
-    <t>CICN930818P85</t>
-  </si>
-  <si>
-    <t>A0D8788E-D5E6-48B9-B3C1-32F98FAC64B1</t>
-  </si>
-  <si>
-    <t>CHAN BALAM JORGE LUIS</t>
-  </si>
-  <si>
-    <t>CABJ930604HZ2</t>
-  </si>
-  <si>
-    <t>267C5FB6-6549-46D6-8D87-56198B9554B3</t>
-  </si>
-  <si>
-    <t>CHAN BALAM EMILIO</t>
-  </si>
-  <si>
-    <t>CABE9106032IA</t>
-  </si>
-  <si>
-    <t>04ACD854-CE74-47A6-895E-8C09FC23690B</t>
-  </si>
-  <si>
-    <t>POOT TAMAY JOSE JAVIER</t>
-  </si>
-  <si>
-    <t>POTJ8508299N4</t>
-  </si>
-  <si>
-    <t>RUIZ PECH JADED ENRIQUE</t>
-  </si>
-  <si>
-    <t>RUPJ9512159Y1</t>
-  </si>
-  <si>
-    <t>15-02-2021</t>
-  </si>
-  <si>
-    <t>15-03-2021</t>
+    <t>Rfc</t>
+  </si>
+  <si>
+    <t>Curp</t>
+  </si>
+  <si>
+    <t>Imss</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Num. Interior</t>
+  </si>
+  <si>
+    <t>Num. exterior</t>
+  </si>
+  <si>
+    <t>Cruzamientos</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>C.P</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Sueldo integrado</t>
+  </si>
+  <si>
+    <t>Fecha ingreso</t>
+  </si>
+  <si>
+    <t>Fecha antiguedad</t>
+  </si>
+  <si>
+    <t>Tipo nomina</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA8DF16"/>
+        <fgColor rgb="FF11CBEF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -165,6 +165,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1838325" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Cliente" descr="Cliente logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,25 +492,45 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A3" sqref="A3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="43" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="35" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="F1" t="inlineStr">
+    <row r="1" spans="1:26">
+      <c r="A1"/>
+      <c r="D1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -484,177 +539,104 @@
               <i val="false"/>
               <strike val="false"/>
               <color rgb="FF000000"/>
-              <sz val="11"/>
+              <sz val="18"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">SISTEMA DE TIMBRADO DE NÓMINA</t>
+            <t xml:space="preserve">FORMATO ALTA DE TRABAJADORES</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>254</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>254</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="T3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="Y3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="Z3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -666,5 +648,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/excel/temp_excel.xlsx
+++ b/storage/excel/temp_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -24,92 +24,68 @@
         <i val="false"/>
         <strike val="false"/>
         <color rgb="FF000000"/>
-        <sz val="18"/>
+        <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">FORMATO ALTA DE TRABAJADORES</t>
+      <t xml:space="preserve">SISTEMA DE TIMBRADO DE NÓMINA</t>
     </r>
   </si>
   <si>
-    <t>SISTEMA DE RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>RFC_Empresa</t>
-  </si>
-  <si>
-    <t>Sucursal</t>
-  </si>
-  <si>
-    <t>Apellido Paterno</t>
-  </si>
-  <si>
-    <t>Apellido Materno</t>
+    <t>Id timbrado</t>
   </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Rfc</t>
-  </si>
-  <si>
-    <t>Curp</t>
-  </si>
-  <si>
-    <t>Imss</t>
-  </si>
-  <si>
-    <t>Fecha nacimiento</t>
-  </si>
-  <si>
-    <t>Calle</t>
-  </si>
-  <si>
-    <t>Num. Interior</t>
-  </si>
-  <si>
-    <t>Num. exterior</t>
-  </si>
-  <si>
-    <t>Cruzamientos</t>
-  </si>
-  <si>
-    <t>Colonia</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>C.P</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Puesto</t>
-  </si>
-  <si>
-    <t>Sueldo</t>
-  </si>
-  <si>
-    <t>Sueldo integrado</t>
-  </si>
-  <si>
-    <t>Fecha ingreso</t>
-  </si>
-  <si>
-    <t>Fecha antiguedad</t>
-  </si>
-  <si>
-    <t>Tipo nomina</t>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>Codigo empleado</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>Fecha pago</t>
+  </si>
+  <si>
+    <t>Fecha timbrado</t>
+  </si>
+  <si>
+    <t>RUIZ PECH JAVIER ALFONSO</t>
+  </si>
+  <si>
+    <t>RUPJ9512159M2</t>
+  </si>
+  <si>
+    <t>04ACD854-CE74-47A6-895E-8C09FC23698B</t>
+  </si>
+  <si>
+    <t>15-02-2021</t>
+  </si>
+  <si>
+    <t>15-03-2021</t>
+  </si>
+  <si>
+    <t>POOT TAMAY JOSE JAVIER</t>
+  </si>
+  <si>
+    <t>POTJ8508299N4</t>
+  </si>
+  <si>
+    <t>04ACD854-CE74-47A6-895E-8C09FC23690B</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>25-11-2021</t>
+  </si>
+  <si>
+    <t>RUIZ PECH JADED ENRIQUE</t>
+  </si>
+  <si>
+    <t>RUPJ9512159Y1</t>
   </si>
 </sst>
 </file>
@@ -140,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF11CBEF"/>
+        <fgColor rgb="FFA8DF16"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -165,41 +141,6 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1838325" cy="476250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Cliente" descr="Cliente logo"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,45 +433,25 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:Z3"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="4" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="43" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="17" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1"/>
-      <c r="D1" t="inlineStr">
+    <row r="1" spans="1:7">
+      <c r="E1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -539,104 +460,108 @@
               <i val="false"/>
               <strike val="false"/>
               <color rgb="FF000000"/>
-              <sz val="18"/>
+              <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">FORMATO ALTA DE TRABAJADORES</t>
+            <t xml:space="preserve">SISTEMA DE TIMBRADO DE NÓMINA</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="D2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -648,6 +573,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>